--- a/timing_data.xlsx
+++ b/timing_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,13 +427,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>web3</v>
+        <v>rest</v>
       </c>
       <c r="B2" t="str">
-        <v>ask_auth_key_radiology</v>
+        <v>saveModel</v>
       </c>
       <c r="C2">
-        <v>497</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3">
@@ -441,12 +441,213 @@
         <v>rest</v>
       </c>
       <c r="B3" t="str">
+        <v>createInstance</v>
+      </c>
+      <c r="C3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B4" t="str">
+        <v>generateKeyPair_ward</v>
+      </c>
+      <c r="C4">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B5" t="str">
+        <v>PublicKeyReaders_ward</v>
+      </c>
+      <c r="C5">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B6" t="str">
+        <v>subscribe_ward</v>
+      </c>
+      <c r="C6">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B7" t="str">
+        <v>generateKeyPair_radiology</v>
+      </c>
+      <c r="C7">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B8" t="str">
+        <v>PublicKeyReaders_radiology</v>
+      </c>
+      <c r="C8">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B9" t="str">
+        <v>subscribe_radiology</v>
+      </c>
+      <c r="C9">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B10" t="str">
+        <v>generateKeyPair_patient</v>
+      </c>
+      <c r="C10">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B11" t="str">
+        <v>PublicKeyReaders_patient</v>
+      </c>
+      <c r="C11">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B12" t="str">
+        <v>subscribe_patient</v>
+      </c>
+      <c r="C12">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B13" t="str">
+        <v>translation1</v>
+      </c>
+      <c r="C13">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B14" t="str">
+        <v>translation2</v>
+      </c>
+      <c r="C14">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B15" t="str">
+        <v>attributesCertification</v>
+      </c>
+      <c r="C15">
+        <v>28151</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B16" t="str">
+        <v>instantiateProcess</v>
+      </c>
+      <c r="C16">
+        <v>39309</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B17" t="str">
+        <v>setInstanceConditions</v>
+      </c>
+      <c r="C17">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B18" t="str">
+        <v>encrypt_message_type</v>
+      </c>
+      <c r="C18">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B19" t="str">
+        <v>execute_message_type</v>
+      </c>
+      <c r="C19">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B20" t="str">
+        <v>ask_auth_key_radiology</v>
+      </c>
+      <c r="C20">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B21" t="str">
         <v>decrypt_wait_type</v>
+      </c>
+      <c r="C21">
+        <v>9724</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G21"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/timing_data.xlsx
+++ b/timing_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,227 +427,29 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>rest</v>
+        <v>web3</v>
       </c>
       <c r="B2" t="str">
-        <v>saveModel</v>
+        <v>ask_auth_key_ward</v>
       </c>
       <c r="C2">
-        <v>312</v>
+        <v>8101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>rest</v>
+        <v>web3</v>
       </c>
       <c r="B3" t="str">
-        <v>createInstance</v>
+        <v>ask_auth_key_patient</v>
       </c>
       <c r="C3">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B4" t="str">
-        <v>generateKeyPair_ward</v>
-      </c>
-      <c r="C4">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>web3</v>
-      </c>
-      <c r="B5" t="str">
-        <v>PublicKeyReaders_ward</v>
-      </c>
-      <c r="C5">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B6" t="str">
-        <v>subscribe_ward</v>
-      </c>
-      <c r="C6">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B7" t="str">
-        <v>generateKeyPair_radiology</v>
-      </c>
-      <c r="C7">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>web3</v>
-      </c>
-      <c r="B8" t="str">
-        <v>PublicKeyReaders_radiology</v>
-      </c>
-      <c r="C8">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B9" t="str">
-        <v>subscribe_radiology</v>
-      </c>
-      <c r="C9">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B10" t="str">
-        <v>generateKeyPair_patient</v>
-      </c>
-      <c r="C10">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>web3</v>
-      </c>
-      <c r="B11" t="str">
-        <v>PublicKeyReaders_patient</v>
-      </c>
-      <c r="C11">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B12" t="str">
-        <v>subscribe_patient</v>
-      </c>
-      <c r="C12">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B13" t="str">
-        <v>translation1</v>
-      </c>
-      <c r="C13">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B14" t="str">
-        <v>translation2</v>
-      </c>
-      <c r="C14">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B15" t="str">
-        <v>attributesCertification</v>
-      </c>
-      <c r="C15">
-        <v>28151</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>web3</v>
-      </c>
-      <c r="B16" t="str">
-        <v>instantiateProcess</v>
-      </c>
-      <c r="C16">
-        <v>39309</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>web3</v>
-      </c>
-      <c r="B17" t="str">
-        <v>setInstanceConditions</v>
-      </c>
-      <c r="C17">
-        <v>2587</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B18" t="str">
-        <v>encrypt_message_type</v>
-      </c>
-      <c r="C18">
-        <v>3540</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>web3</v>
-      </c>
-      <c r="B19" t="str">
-        <v>execute_message_type</v>
-      </c>
-      <c r="C19">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>web3</v>
-      </c>
-      <c r="B20" t="str">
-        <v>ask_auth_key_radiology</v>
-      </c>
-      <c r="C20">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B21" t="str">
-        <v>decrypt_wait_type</v>
-      </c>
-      <c r="C21">
-        <v>9724</v>
+        <v>11684</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/timing_data.xlsx
+++ b/timing_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,29 +427,579 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>web3</v>
+        <v>rest</v>
       </c>
       <c r="B2" t="str">
-        <v>ask_auth_key_ward</v>
+        <v>saveModel</v>
       </c>
       <c r="C2">
-        <v>8101</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>web3</v>
+        <v>rest</v>
       </c>
       <c r="B3" t="str">
+        <v>createInstance</v>
+      </c>
+      <c r="C3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B4" t="str">
+        <v>generateKeyPair_ward</v>
+      </c>
+      <c r="C4">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B5" t="str">
+        <v>PublicKeyReaders_ward</v>
+      </c>
+      <c r="C5">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B6" t="str">
+        <v>subscribe_ward</v>
+      </c>
+      <c r="C6">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B7" t="str">
+        <v>generateKeyPair_radiology</v>
+      </c>
+      <c r="C7">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B8" t="str">
+        <v>PublicKeyReaders_radiology</v>
+      </c>
+      <c r="C8">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B9" t="str">
+        <v>subscribe_radiology</v>
+      </c>
+      <c r="C9">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B10" t="str">
+        <v>generateKeyPair_patient</v>
+      </c>
+      <c r="C10">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B11" t="str">
+        <v>PublicKeyReaders_patient</v>
+      </c>
+      <c r="C11">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B12" t="str">
+        <v>subscribe_patient</v>
+      </c>
+      <c r="C12">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B13" t="str">
+        <v>translation1</v>
+      </c>
+      <c r="C13">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B14" t="str">
+        <v>translation2</v>
+      </c>
+      <c r="C14">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B15" t="str">
+        <v>attributesCertification</v>
+      </c>
+      <c r="C15">
+        <v>28796</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B16" t="str">
+        <v>instantiateProcess</v>
+      </c>
+      <c r="C16">
+        <v>37017</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B17" t="str">
+        <v>setInstanceConditions</v>
+      </c>
+      <c r="C17">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B18" t="str">
+        <v>encrypt_message_type</v>
+      </c>
+      <c r="C18">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B19" t="str">
+        <v>execute_message_type</v>
+      </c>
+      <c r="C19">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B20" t="str">
+        <v>encrypt_message_requestId2</v>
+      </c>
+      <c r="C20">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B21" t="str">
+        <v>execute_message_requestId2</v>
+      </c>
+      <c r="C21">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B22" t="str">
+        <v>encrypt_message_accepted2</v>
+      </c>
+      <c r="C22">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B23" t="str">
+        <v>execute_message_accepted2</v>
+      </c>
+      <c r="C23">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B24" t="str">
+        <v>encrypt_message_appointment</v>
+      </c>
+      <c r="C24">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B25" t="str">
+        <v>execute_message_appointment</v>
+      </c>
+      <c r="C25">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B26" t="str">
+        <v>encrypt_message_certificationId</v>
+      </c>
+      <c r="C26">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B27" t="str">
+        <v>execute_message_certificationId</v>
+      </c>
+      <c r="C27">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B28" t="str">
+        <v>encrypt_message_temperature</v>
+      </c>
+      <c r="C28">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B29" t="str">
+        <v>execute_message_temperature</v>
+      </c>
+      <c r="C29">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B30" t="str">
+        <v>encrypt_message_appointmentId</v>
+      </c>
+      <c r="C30">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B31" t="str">
+        <v>execute_message_appointmentId</v>
+      </c>
+      <c r="C31">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B32" t="str">
+        <v>encrypt_message_registration</v>
+      </c>
+      <c r="C32">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B33" t="str">
+        <v>execute_message_registration</v>
+      </c>
+      <c r="C33">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B34" t="str">
+        <v>encrypt_message_report</v>
+      </c>
+      <c r="C34">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B35" t="str">
+        <v>execute_message_report</v>
+      </c>
+      <c r="C35">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B36" t="str">
+        <v>encrypt_message_resultId</v>
+      </c>
+      <c r="C36">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B37" t="str">
+        <v>execute_message_resultID</v>
+      </c>
+      <c r="C37">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B38" t="str">
+        <v>decrypt_check_type</v>
+      </c>
+      <c r="C38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B39" t="str">
+        <v>ask_auth_key_radiology</v>
+      </c>
+      <c r="C39">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B40" t="str">
+        <v>decrypt_wait_type</v>
+      </c>
+      <c r="C40">
+        <v>8357</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B41" t="str">
+        <v>decrypt_check_requestId2</v>
+      </c>
+      <c r="C41">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B42" t="str">
+        <v>decrypt_check_accepted2</v>
+      </c>
+      <c r="C42">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B43" t="str">
+        <v>ask_auth_key_ward</v>
+      </c>
+      <c r="C43">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B44" t="str">
+        <v>decrypt_wait_accepted</v>
+      </c>
+      <c r="C44">
+        <v>7553</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B45" t="str">
+        <v>decrypt_check_appointment</v>
+      </c>
+      <c r="C45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B46" t="str">
         <v>ask_auth_key_patient</v>
       </c>
-      <c r="C3">
-        <v>11684</v>
+      <c r="C46">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B47" t="str">
+        <v>decrypt_wait_appointment</v>
+      </c>
+      <c r="C47">
+        <v>7250</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B48" t="str">
+        <v>decrypt_check_certificationId</v>
+      </c>
+      <c r="C48">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B49" t="str">
+        <v>decrypt_check_temperature</v>
+      </c>
+      <c r="C49">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B50" t="str">
+        <v>decrypt_check_appointmentId</v>
+      </c>
+      <c r="C50">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B51" t="str">
+        <v>decrypt_check_registration</v>
+      </c>
+      <c r="C51">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B52" t="str">
+        <v>decrypt_check_ticketId</v>
+      </c>
+      <c r="C52">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B53" t="str">
+        <v>decrypt_check_resultId</v>
+      </c>
+      <c r="C53">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G53"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/timing_data.xlsx
+++ b/timing_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,7 +433,7 @@
         <v>saveModel</v>
       </c>
       <c r="C2">
-        <v>1028</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="3">
@@ -444,7 +444,7 @@
         <v>createInstance</v>
       </c>
       <c r="C3">
-        <v>408</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="4">
@@ -452,10 +452,10 @@
         <v>rest</v>
       </c>
       <c r="B4" t="str">
-        <v>generateKeyPair_ward</v>
+        <v>generateKeyPair_SOFTWARE_DEVELOPER</v>
       </c>
       <c r="C4">
-        <v>2072</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="5">
@@ -463,10 +463,10 @@
         <v>web3</v>
       </c>
       <c r="B5" t="str">
-        <v>PublicKeyReaders_ward</v>
+        <v>PublicKeyReaders_SOFTWARE_DEVELOPER</v>
       </c>
       <c r="C5">
-        <v>1487</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="6">
@@ -474,10 +474,10 @@
         <v>rest</v>
       </c>
       <c r="B6" t="str">
-        <v>subscribe_ward</v>
+        <v>subscribe_SOFTWARE_DEVELOPER</v>
       </c>
       <c r="C6">
-        <v>986</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="7">
@@ -485,10 +485,10 @@
         <v>rest</v>
       </c>
       <c r="B7" t="str">
-        <v>generateKeyPair_radiology</v>
+        <v>generateKeyPair_VIP_CUSTOMER</v>
       </c>
       <c r="C7">
-        <v>2197</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="8">
@@ -496,10 +496,10 @@
         <v>web3</v>
       </c>
       <c r="B8" t="str">
-        <v>PublicKeyReaders_radiology</v>
+        <v>PublicKeyReaders_VIP_CUSTOMER</v>
       </c>
       <c r="C8">
-        <v>965</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="9">
@@ -507,10 +507,10 @@
         <v>rest</v>
       </c>
       <c r="B9" t="str">
-        <v>subscribe_radiology</v>
+        <v>subscribe_VIP_CUSTOMER</v>
       </c>
       <c r="C9">
-        <v>697</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="10">
@@ -518,10 +518,10 @@
         <v>rest</v>
       </c>
       <c r="B10" t="str">
-        <v>generateKeyPair_patient</v>
+        <v>generateKeyPair_2ND_LEVEL_SUPPORT_AGENT</v>
       </c>
       <c r="C10">
-        <v>794</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="11">
@@ -529,10 +529,10 @@
         <v>web3</v>
       </c>
       <c r="B11" t="str">
-        <v>PublicKeyReaders_patient</v>
+        <v>PublicKeyReaders_2ND_LEVEL_SUPPORT_AGENT</v>
       </c>
       <c r="C11">
-        <v>961</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="12">
@@ -540,10 +540,10 @@
         <v>rest</v>
       </c>
       <c r="B12" t="str">
-        <v>subscribe_patient</v>
+        <v>subscribe_2ND_LEVEL_SUPPORT_AGENT</v>
       </c>
       <c r="C12">
-        <v>433</v>
+        <v>945</v>
       </c>
     </row>
     <row r="13">
@@ -551,21 +551,21 @@
         <v>rest</v>
       </c>
       <c r="B13" t="str">
-        <v>translation1</v>
+        <v>generateKeyPair_KEY_ACCOUNT_MANAGER</v>
       </c>
       <c r="C13">
-        <v>1572</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>rest</v>
+        <v>web3</v>
       </c>
       <c r="B14" t="str">
-        <v>translation2</v>
+        <v>PublicKeyReaders_KEY_ACCOUNT_MANAGER</v>
       </c>
       <c r="C14">
-        <v>477</v>
+        <v>982</v>
       </c>
     </row>
     <row r="15">
@@ -573,21 +573,21 @@
         <v>rest</v>
       </c>
       <c r="B15" t="str">
-        <v>attributesCertification</v>
+        <v>subscribe_KEY_ACCOUNT_MANAGER</v>
       </c>
       <c r="C15">
-        <v>28796</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>web3</v>
+        <v>rest</v>
       </c>
       <c r="B16" t="str">
-        <v>instantiateProcess</v>
+        <v>generateKeyPair_1ST_LEVEL_SUPPORT_AGENT</v>
       </c>
       <c r="C16">
-        <v>37017</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="17">
@@ -595,10 +595,10 @@
         <v>web3</v>
       </c>
       <c r="B17" t="str">
-        <v>setInstanceConditions</v>
+        <v>PublicKeyReaders_1ST_LEVEL_SUPPORT_AGENT</v>
       </c>
       <c r="C17">
-        <v>4332</v>
+        <v>936</v>
       </c>
     </row>
     <row r="18">
@@ -606,21 +606,21 @@
         <v>rest</v>
       </c>
       <c r="B18" t="str">
-        <v>encrypt_message_type</v>
+        <v>subscribe_1ST_LEVEL_SUPPORT_AGENT</v>
       </c>
       <c r="C18">
-        <v>3629</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>web3</v>
+        <v>rest</v>
       </c>
       <c r="B19" t="str">
-        <v>execute_message_type</v>
+        <v>translation1</v>
       </c>
       <c r="C19">
-        <v>2686</v>
+        <v>7556</v>
       </c>
     </row>
     <row r="20">
@@ -628,32 +628,32 @@
         <v>rest</v>
       </c>
       <c r="B20" t="str">
-        <v>encrypt_message_requestId2</v>
+        <v>translation2</v>
       </c>
       <c r="C20">
-        <v>718</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>web3</v>
+        <v>rest</v>
       </c>
       <c r="B21" t="str">
-        <v>execute_message_requestId2</v>
+        <v>attributesCertification</v>
       </c>
       <c r="C21">
-        <v>1776</v>
+        <v>36048</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>rest</v>
+        <v>web3</v>
       </c>
       <c r="B22" t="str">
-        <v>encrypt_message_accepted2</v>
+        <v>instantiateProcess</v>
       </c>
       <c r="C22">
-        <v>620</v>
+        <v>50550</v>
       </c>
     </row>
     <row r="23">
@@ -661,345 +661,15 @@
         <v>web3</v>
       </c>
       <c r="B23" t="str">
-        <v>execute_message_accepted2</v>
+        <v>setInstanceConditions</v>
       </c>
       <c r="C23">
-        <v>2896</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B24" t="str">
-        <v>encrypt_message_appointment</v>
-      </c>
-      <c r="C24">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>web3</v>
-      </c>
-      <c r="B25" t="str">
-        <v>execute_message_appointment</v>
-      </c>
-      <c r="C25">
-        <v>2971</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B26" t="str">
-        <v>encrypt_message_certificationId</v>
-      </c>
-      <c r="C26">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>web3</v>
-      </c>
-      <c r="B27" t="str">
-        <v>execute_message_certificationId</v>
-      </c>
-      <c r="C27">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B28" t="str">
-        <v>encrypt_message_temperature</v>
-      </c>
-      <c r="C28">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>web3</v>
-      </c>
-      <c r="B29" t="str">
-        <v>execute_message_temperature</v>
-      </c>
-      <c r="C29">
-        <v>2613</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B30" t="str">
-        <v>encrypt_message_appointmentId</v>
-      </c>
-      <c r="C30">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>web3</v>
-      </c>
-      <c r="B31" t="str">
-        <v>execute_message_appointmentId</v>
-      </c>
-      <c r="C31">
-        <v>1954</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B32" t="str">
-        <v>encrypt_message_registration</v>
-      </c>
-      <c r="C32">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>web3</v>
-      </c>
-      <c r="B33" t="str">
-        <v>execute_message_registration</v>
-      </c>
-      <c r="C33">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B34" t="str">
-        <v>encrypt_message_report</v>
-      </c>
-      <c r="C34">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>web3</v>
-      </c>
-      <c r="B35" t="str">
-        <v>execute_message_report</v>
-      </c>
-      <c r="C35">
-        <v>2127</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B36" t="str">
-        <v>encrypt_message_resultId</v>
-      </c>
-      <c r="C36">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>web3</v>
-      </c>
-      <c r="B37" t="str">
-        <v>execute_message_resultID</v>
-      </c>
-      <c r="C37">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B38" t="str">
-        <v>decrypt_check_type</v>
-      </c>
-      <c r="C38">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>web3</v>
-      </c>
-      <c r="B39" t="str">
-        <v>ask_auth_key_radiology</v>
-      </c>
-      <c r="C39">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B40" t="str">
-        <v>decrypt_wait_type</v>
-      </c>
-      <c r="C40">
-        <v>8357</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B41" t="str">
-        <v>decrypt_check_requestId2</v>
-      </c>
-      <c r="C41">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B42" t="str">
-        <v>decrypt_check_accepted2</v>
-      </c>
-      <c r="C42">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>web3</v>
-      </c>
-      <c r="B43" t="str">
-        <v>ask_auth_key_ward</v>
-      </c>
-      <c r="C43">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B44" t="str">
-        <v>decrypt_wait_accepted</v>
-      </c>
-      <c r="C44">
-        <v>7553</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B45" t="str">
-        <v>decrypt_check_appointment</v>
-      </c>
-      <c r="C45">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>web3</v>
-      </c>
-      <c r="B46" t="str">
-        <v>ask_auth_key_patient</v>
-      </c>
-      <c r="C46">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B47" t="str">
-        <v>decrypt_wait_appointment</v>
-      </c>
-      <c r="C47">
-        <v>7250</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B48" t="str">
-        <v>decrypt_check_certificationId</v>
-      </c>
-      <c r="C48">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B49" t="str">
-        <v>decrypt_check_temperature</v>
-      </c>
-      <c r="C49">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B50" t="str">
-        <v>decrypt_check_appointmentId</v>
-      </c>
-      <c r="C50">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B51" t="str">
-        <v>decrypt_check_registration</v>
-      </c>
-      <c r="C51">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B52" t="str">
-        <v>decrypt_check_ticketId</v>
-      </c>
-      <c r="C52">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>rest</v>
-      </c>
-      <c r="B53" t="str">
-        <v>decrypt_check_resultId</v>
-      </c>
-      <c r="C53">
-        <v>307</v>
+        <v>6556</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G53"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G23"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/timing_data.xlsx
+++ b/timing_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,7 +433,7 @@
         <v>saveModel</v>
       </c>
       <c r="C2">
-        <v>2205</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="3">
@@ -444,7 +444,7 @@
         <v>createInstance</v>
       </c>
       <c r="C3">
-        <v>2104</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4">
@@ -452,10 +452,10 @@
         <v>rest</v>
       </c>
       <c r="B4" t="str">
-        <v>generateKeyPair_SOFTWARE_DEVELOPER</v>
+        <v>generateKeyPair_VIPCUSTOMER</v>
       </c>
       <c r="C4">
-        <v>2220</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="5">
@@ -463,10 +463,10 @@
         <v>web3</v>
       </c>
       <c r="B5" t="str">
-        <v>PublicKeyReaders_SOFTWARE_DEVELOPER</v>
+        <v>PublicKeyReaders_VIPCUSTOMER</v>
       </c>
       <c r="C5">
-        <v>1407</v>
+        <v>946</v>
       </c>
     </row>
     <row r="6">
@@ -474,10 +474,10 @@
         <v>rest</v>
       </c>
       <c r="B6" t="str">
-        <v>subscribe_SOFTWARE_DEVELOPER</v>
+        <v>subscribe_VIPCUSTOMER</v>
       </c>
       <c r="C6">
-        <v>2073</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7">
@@ -485,10 +485,10 @@
         <v>rest</v>
       </c>
       <c r="B7" t="str">
-        <v>generateKeyPair_VIP_CUSTOMER</v>
+        <v>generateKeyPair_SOFTWAREDEVELOPER</v>
       </c>
       <c r="C7">
-        <v>2876</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="8">
@@ -496,10 +496,10 @@
         <v>web3</v>
       </c>
       <c r="B8" t="str">
-        <v>PublicKeyReaders_VIP_CUSTOMER</v>
+        <v>PublicKeyReaders_SOFTWAREDEVELOPER</v>
       </c>
       <c r="C8">
-        <v>1030</v>
+        <v>789</v>
       </c>
     </row>
     <row r="9">
@@ -507,10 +507,10 @@
         <v>rest</v>
       </c>
       <c r="B9" t="str">
-        <v>subscribe_VIP_CUSTOMER</v>
+        <v>subscribe_SOFTWAREDEVELOPER</v>
       </c>
       <c r="C9">
-        <v>1567</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10">
@@ -518,10 +518,10 @@
         <v>rest</v>
       </c>
       <c r="B10" t="str">
-        <v>generateKeyPair_2ND_LEVEL_SUPPORT_AGENT</v>
+        <v>generateKeyPair_2NDLEVELSUPPORTAGENT</v>
       </c>
       <c r="C10">
-        <v>1840</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="11">
@@ -529,10 +529,10 @@
         <v>web3</v>
       </c>
       <c r="B11" t="str">
-        <v>PublicKeyReaders_2ND_LEVEL_SUPPORT_AGENT</v>
+        <v>PublicKeyReaders_2NDLEVELSUPPORTAGENT</v>
       </c>
       <c r="C11">
-        <v>1081</v>
+        <v>829</v>
       </c>
     </row>
     <row r="12">
@@ -540,10 +540,10 @@
         <v>rest</v>
       </c>
       <c r="B12" t="str">
-        <v>subscribe_2ND_LEVEL_SUPPORT_AGENT</v>
+        <v>subscribe_2NDLEVELSUPPORTAGENT</v>
       </c>
       <c r="C12">
-        <v>945</v>
+        <v>836</v>
       </c>
     </row>
     <row r="13">
@@ -551,10 +551,10 @@
         <v>rest</v>
       </c>
       <c r="B13" t="str">
-        <v>generateKeyPair_KEY_ACCOUNT_MANAGER</v>
+        <v>generateKeyPair_KEYACCOUNTMANAGER</v>
       </c>
       <c r="C13">
-        <v>1464</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="14">
@@ -562,10 +562,10 @@
         <v>web3</v>
       </c>
       <c r="B14" t="str">
-        <v>PublicKeyReaders_KEY_ACCOUNT_MANAGER</v>
+        <v>PublicKeyReaders_KEYACCOUNTMANAGER</v>
       </c>
       <c r="C14">
-        <v>982</v>
+        <v>917</v>
       </c>
     </row>
     <row r="15">
@@ -573,10 +573,10 @@
         <v>rest</v>
       </c>
       <c r="B15" t="str">
-        <v>subscribe_KEY_ACCOUNT_MANAGER</v>
+        <v>subscribe_KEYACCOUNTMANAGER</v>
       </c>
       <c r="C15">
-        <v>1608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="16">
@@ -584,10 +584,10 @@
         <v>rest</v>
       </c>
       <c r="B16" t="str">
-        <v>generateKeyPair_1ST_LEVEL_SUPPORT_AGENT</v>
+        <v>generateKeyPair_1STLEVELSUPPORTAGENT</v>
       </c>
       <c r="C16">
-        <v>2424</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="17">
@@ -595,10 +595,10 @@
         <v>web3</v>
       </c>
       <c r="B17" t="str">
-        <v>PublicKeyReaders_1ST_LEVEL_SUPPORT_AGENT</v>
+        <v>PublicKeyReaders_1STLEVELSUPPORTAGENT</v>
       </c>
       <c r="C17">
-        <v>936</v>
+        <v>888</v>
       </c>
     </row>
     <row r="18">
@@ -606,10 +606,10 @@
         <v>rest</v>
       </c>
       <c r="B18" t="str">
-        <v>subscribe_1ST_LEVEL_SUPPORT_AGENT</v>
+        <v>subscribe_1STLEVELSUPPORTAGENT</v>
       </c>
       <c r="C18">
-        <v>1552</v>
+        <v>749</v>
       </c>
     </row>
     <row r="19">
@@ -620,7 +620,7 @@
         <v>translation1</v>
       </c>
       <c r="C19">
-        <v>7556</v>
+        <v>680</v>
       </c>
     </row>
     <row r="20">
@@ -631,7 +631,7 @@
         <v>translation2</v>
       </c>
       <c r="C20">
-        <v>1219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         <v>attributesCertification</v>
       </c>
       <c r="C21">
-        <v>36048</v>
+        <v>32133</v>
       </c>
     </row>
     <row r="22">
@@ -653,7 +653,7 @@
         <v>instantiateProcess</v>
       </c>
       <c r="C22">
-        <v>50550</v>
+        <v>17245</v>
       </c>
     </row>
     <row r="23">
@@ -664,12 +664,196 @@
         <v>setInstanceConditions</v>
       </c>
       <c r="C23">
-        <v>6556</v>
+        <v>5437</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B24" t="str">
+        <v>encrypt_message_problem</v>
+      </c>
+      <c r="C24">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B25" t="str">
+        <v>execute_message_problem</v>
+      </c>
+      <c r="C25">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B26" t="str">
+        <v>encrypt_message_questions</v>
+      </c>
+      <c r="C26">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B27" t="str">
+        <v>execute_message_questions</v>
+      </c>
+      <c r="C27">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B28" t="str">
+        <v>encrypt_message_answer</v>
+      </c>
+      <c r="C28">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B29" t="str">
+        <v>execute_message_answer</v>
+      </c>
+      <c r="C29">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B30" t="str">
+        <v>encrypt_message_handle</v>
+      </c>
+      <c r="C30">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B31" t="str">
+        <v>execute_message_handle</v>
+      </c>
+      <c r="C31">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B32" t="str">
+        <v>encrypt_message_firstIssue</v>
+      </c>
+      <c r="C32">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B33" t="str">
+        <v>execute_message_firstIssue</v>
+      </c>
+      <c r="C33">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B34" t="str">
+        <v>encrypt_message_result</v>
+      </c>
+      <c r="C34">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B35" t="str">
+        <v>execute_message_result</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>web3</v>
+      </c>
+      <c r="B36" t="str">
+        <v>ask_auth_key_KEYACCOUNTMANAGER</v>
+      </c>
+      <c r="C36">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B37" t="str">
+        <v>decrypt_wait_problem</v>
+      </c>
+      <c r="C37">
+        <v>8331</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B38" t="str">
+        <v>decrypt_wait_questions</v>
+      </c>
+      <c r="C38">
+        <v>16443</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B39" t="str">
+        <v>decrypt_check_result</v>
+      </c>
+      <c r="C39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>rest</v>
+      </c>
+      <c r="B40" t="str">
+        <v>decrypt_check_solution</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G23"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G40"/>
   </ignoredErrors>
 </worksheet>
 </file>